--- a/Reports/heart/heart_multifairgan_50_1.xlsx
+++ b/Reports/heart/heart_multifairgan_50_1.xlsx
@@ -442,57 +442,57 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>-0.1731</v>
+        <v>-0.051</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-0.163</v>
+        <v>-0.051</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.676</v>
+        <v>0.9049</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1.5892</v>
+        <v>0.9239000000000001</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.186</v>
+        <v>-0.09</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>2.3877</v>
+        <v>0.7353</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>-0.35</v>
+        <v>-0.0953</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0</v>
+        <v>0.7588</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.08019999999999999</v>
+        <v>-0.0222</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.0011</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>0.8087</v>
+        <v>0.6848</v>
       </c>
     </row>
     <row r="13">
